--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2210,7 +2210,11 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -2288,8 +2292,10 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N8" t="n">
-        <v>126</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -2540,7 +2546,11 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -2626,7 +2636,11 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -2712,8 +2726,10 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N13" t="n">
-        <v>126</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -2988,7 +3004,11 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -3070,7 +3090,11 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -3152,8 +3176,10 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N18" t="n">
-        <v>126</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -3416,7 +3442,11 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -3494,7 +3524,11 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -3572,8 +3606,10 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N23" t="n">
-        <v>126</v>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -3832,7 +3868,11 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
@@ -3918,7 +3958,11 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
@@ -4004,8 +4048,10 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N28" t="n">
-        <v>126</v>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2210,10 +2210,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-        </is>
+      <c r="N7" t="n">
+        <v>60000168</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -2546,10 +2544,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-        </is>
+      <c r="N11" t="n">
+        <v>60000168</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -2636,10 +2632,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-        </is>
+      <c r="N12" t="n">
+        <v>60000168</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -3004,10 +2998,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-        </is>
+      <c r="N16" t="n">
+        <v>60000168</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -3090,10 +3082,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-        </is>
+      <c r="N17" t="n">
+        <v>60000168</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -3442,10 +3432,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-        </is>
+      <c r="N21" t="n">
+        <v>60000168</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -3524,10 +3512,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-        </is>
+      <c r="N22" t="n">
+        <v>60000168</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
@@ -3868,10 +3854,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-        </is>
+      <c r="N26" t="n">
+        <v>60000168</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
@@ -3958,10 +3942,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-        </is>
+      <c r="N27" t="n">
+        <v>60000168</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2161,84 +2161,90 @@
       <c r="AB6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>MPA_INTRACOMPANY_TRANSFER_2</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
+      <c r="A7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="B7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="C7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="D7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="E7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="F7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="G7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="H7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="I7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="J7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="K7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="L7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="M7" t="n">
+        <v>60000169</v>
       </c>
       <c r="N7" t="n">
-        <v>60000168</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0004</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
+        <v>60000169</v>
+      </c>
+      <c r="O7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="P7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="R7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="S7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="T7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="U7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="V7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="W7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="X7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>60000169</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2499,176 +2505,176 @@
       <c r="AB10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>MPA_INTRACOMPANY_TRANSFER_6</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
+      <c r="A11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="B11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="C11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="D11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="E11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="F11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="G11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="H11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="I11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="J11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="K11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="L11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="M11" t="n">
+        <v>60000169</v>
       </c>
       <c r="N11" t="n">
-        <v>60000168</v>
-      </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0004</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
+        <v>60000169</v>
+      </c>
+      <c r="O11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="P11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="R11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="S11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="T11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="U11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="V11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="W11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="X11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>60000169</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>MPA_INTRACOMPANY_TRANSFER_7</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
+      <c r="A12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="B12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="C12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="D12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="E12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="F12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="G12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="H12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="I12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="J12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="K12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="L12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="M12" t="n">
+        <v>60000169</v>
       </c>
       <c r="N12" t="n">
-        <v>60000168</v>
-      </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0004</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
+        <v>60000169</v>
+      </c>
+      <c r="O12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="P12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="R12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="S12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="T12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="U12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="V12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="W12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="X12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>60000169</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2953,168 +2959,176 @@
       <c r="AB15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>MPA_INTRACOMPANY_TRANSFER_11</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
+      <c r="A16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="B16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="C16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="D16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="E16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="F16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="G16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="H16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="I16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="J16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="K16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="L16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="M16" t="n">
+        <v>60000169</v>
       </c>
       <c r="N16" t="n">
-        <v>60000168</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>0004</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
+        <v>60000169</v>
+      </c>
+      <c r="O16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="P16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="R16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="S16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="T16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="U16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="V16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="W16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="X16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>60000169</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>MPA_INTRACOMPANY_TRANSFER_12</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
+      <c r="A17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="B17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="C17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="D17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="E17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="F17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="G17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="H17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="I17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="J17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="K17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="L17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>60000169</v>
       </c>
       <c r="N17" t="n">
-        <v>60000168</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>0004</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
+        <v>60000169</v>
+      </c>
+      <c r="O17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="P17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="R17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="S17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="T17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="U17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="V17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="W17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="X17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>60000169</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3387,160 +3401,176 @@
       <c r="AB20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>MPA_INTRACOMPANY_TRANSFER_16</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
+      <c r="A21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="B21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="C21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="D21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="E21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="F21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="G21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="H21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="I21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="J21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="K21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="L21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="M21" t="n">
+        <v>60000169</v>
       </c>
       <c r="N21" t="n">
-        <v>60000168</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>0004</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
+        <v>60000169</v>
+      </c>
+      <c r="O21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="P21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="R21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="S21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="T21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="U21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="V21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="W21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="X21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>60000169</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>MPA_INTRACOMPANY_TRANSFER_17</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
+      <c r="A22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="B22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="C22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="D22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="E22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="F22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="G22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="H22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="I22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="J22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="K22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="L22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="M22" t="n">
+        <v>60000169</v>
       </c>
       <c r="N22" t="n">
-        <v>60000168</v>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>0004</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
+        <v>60000169</v>
+      </c>
+      <c r="O22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="P22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="R22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="S22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="T22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="U22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="V22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="W22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="X22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>60000169</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3801,176 +3831,176 @@
       <c r="AB25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0L</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>MPA_INTRACOMPANY_TRANSFER_21</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
+      <c r="A26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="B26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="C26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="D26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="E26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="F26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="G26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="H26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="I26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="J26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="K26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="L26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="M26" t="n">
+        <v>60000169</v>
       </c>
       <c r="N26" t="n">
-        <v>60000168</v>
-      </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>0004</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
+        <v>60000169</v>
+      </c>
+      <c r="O26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="P26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="R26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="S26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="T26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="U26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="V26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="W26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="X26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>60000169</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2L</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>MPA_INTRACOMPANY_TRANSFER_22</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>1710</t>
-        </is>
+      <c r="A27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="B27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="C27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="D27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="E27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="F27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="G27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="H27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="I27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="J27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="K27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="L27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="M27" t="n">
+        <v>60000169</v>
       </c>
       <c r="N27" t="n">
-        <v>60000168</v>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>0004</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
+        <v>60000169</v>
+      </c>
+      <c r="O27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="P27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="R27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="S27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="T27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="U27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="V27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="W27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="X27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>60000169</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>60000169</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2161,90 +2161,84 @@
       <c r="AB6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="B7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="C7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="D7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="E7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="F7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="G7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="H7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="I7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="J7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="K7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="L7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="M7" t="n">
-        <v>60000169</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>MPA_INTRACOMPANY_TRANSFER_2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
       </c>
       <c r="N7" t="n">
         <v>60000169</v>
       </c>
-      <c r="O7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="P7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="R7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="S7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="T7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="U7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="V7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="W7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="X7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>60000169</v>
-      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0004</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2505,176 +2499,176 @@
       <c r="AB10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="B11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="C11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="E11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="F11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="G11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="H11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="I11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="J11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="K11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="L11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="M11" t="n">
-        <v>60000169</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>MPA_INTRACOMPANY_TRANSFER_6</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
       </c>
       <c r="N11" t="n">
         <v>60000169</v>
       </c>
-      <c r="O11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="P11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="R11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="S11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="T11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="U11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="V11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="W11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="X11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>60000169</v>
-      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0004</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="B12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="C12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="D12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="E12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="F12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="G12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="H12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="I12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="J12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="K12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="L12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="M12" t="n">
-        <v>60000169</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>MPA_INTRACOMPANY_TRANSFER_7</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
       </c>
       <c r="N12" t="n">
         <v>60000169</v>
       </c>
-      <c r="O12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="P12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="R12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="S12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="T12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="U12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="V12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="W12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="X12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>60000169</v>
-      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0004</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2959,176 +2953,168 @@
       <c r="AB15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="B16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="C16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="D16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="E16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="F16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="G16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="H16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="I16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="J16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="K16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="L16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="M16" t="n">
-        <v>60000169</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>MPA_INTRACOMPANY_TRANSFER_11</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
       </c>
       <c r="N16" t="n">
         <v>60000169</v>
       </c>
-      <c r="O16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="P16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="R16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="S16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="T16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="U16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="V16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="W16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="X16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>60000169</v>
-      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>0004</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="B17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="C17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="D17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="E17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="F17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="G17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="H17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="I17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="J17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="K17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="L17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="M17" t="n">
-        <v>60000169</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>MPA_INTRACOMPANY_TRANSFER_12</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
       </c>
       <c r="N17" t="n">
         <v>60000169</v>
       </c>
-      <c r="O17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="P17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="R17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="S17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="T17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="U17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="V17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="W17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="X17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>60000169</v>
-      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>0004</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3401,176 +3387,160 @@
       <c r="AB20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="B21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="C21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="D21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="E21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="F21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="G21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="H21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="I21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="J21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="K21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="L21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="M21" t="n">
-        <v>60000169</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>MPA_INTRACOMPANY_TRANSFER_16</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
       </c>
       <c r="N21" t="n">
         <v>60000169</v>
       </c>
-      <c r="O21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="P21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="R21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="S21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="T21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="U21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="V21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="W21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="X21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>60000169</v>
-      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0004</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="B22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="C22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="D22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="E22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="F22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="G22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="H22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="I22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="J22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="K22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="L22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="M22" t="n">
-        <v>60000169</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>MPA_INTRACOMPANY_TRANSFER_17</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
       </c>
       <c r="N22" t="n">
         <v>60000169</v>
       </c>
-      <c r="O22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="P22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="R22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="S22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="T22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="U22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="V22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="W22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="X22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>60000169</v>
-      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>0004</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3831,176 +3801,176 @@
       <c r="AB25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="B26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="C26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="D26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="E26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="F26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="G26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="H26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="I26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="J26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="K26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="L26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="M26" t="n">
-        <v>60000169</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0L</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>MPA_INTRACOMPANY_TRANSFER_21</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
       </c>
       <c r="N26" t="n">
         <v>60000169</v>
       </c>
-      <c r="O26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="P26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="R26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="S26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="T26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="U26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="V26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="W26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="X26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>60000169</v>
-      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>0004</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="B27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="C27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="D27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="E27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="F27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="G27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="H27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="I27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="J27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="K27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="L27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="M27" t="n">
-        <v>60000169</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2L</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>MPA_INTRACOMPANY_TRANSFER_22</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
       </c>
       <c r="N27" t="n">
         <v>60000169</v>
       </c>
-      <c r="O27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="P27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="R27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="S27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="T27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="U27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="V27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="W27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="X27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>60000169</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>60000169</v>
-      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>0004</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2122,7 +2122,9 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>60000168</v>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -2210,8 +2212,10 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N7" t="n">
-        <v>60000169</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -2292,7 +2296,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2372,7 +2376,9 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>60000168</v>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -2460,7 +2466,11 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -2545,7 +2555,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>60000169</v>
+        <v>60000168</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -2632,8 +2642,10 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N12" t="n">
-        <v>60000169</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -2722,7 +2734,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2810,7 +2822,9 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>60000168</v>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -2906,7 +2920,11 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -2999,7 +3017,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>60000169</v>
+        <v>60000168</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -3082,8 +3100,10 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N17" t="n">
-        <v>60000169</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -3168,7 +3188,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -3252,7 +3272,9 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>60000168</v>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -3344,7 +3366,11 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -3433,7 +3459,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>60000169</v>
+        <v>60000168</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -3512,8 +3538,10 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>60000169</v>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
@@ -3594,7 +3622,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3674,7 +3702,9 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>60000168</v>
+      </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
@@ -3762,7 +3792,11 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
@@ -3855,7 +3889,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>60000169</v>
+        <v>60000168</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
@@ -3942,8 +3976,10 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>60000169</v>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
@@ -4032,7 +4068,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -4120,7 +4156,9 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>60000168</v>
+      </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2111,10 +2111,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
-        </is>
+      <c r="K6" t="n">
+        <v>60000168</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
@@ -2122,9 +2120,7 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N6" t="n">
-        <v>60000168</v>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -2197,25 +2193,19 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K7" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>125</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
+      <c r="N7" t="n">
+        <v>60000169</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -2279,30 +2269,22 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K8" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>125</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
-        </is>
+      <c r="N8" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>126</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -2365,10 +2347,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
-        </is>
+      <c r="K9" t="n">
+        <v>60000168</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
@@ -2376,9 +2356,7 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N9" t="n">
-        <v>60000168</v>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -2451,26 +2429,18 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K10" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>125</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -2543,10 +2513,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
-        </is>
+      <c r="K11" t="n">
+        <v>60000168</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
@@ -2555,7 +2523,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>60000168</v>
+        <v>60000169</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -2627,25 +2595,19 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K12" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>125</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
+      <c r="N12" t="n">
+        <v>60000169</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -2717,30 +2679,22 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K13" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>125</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
-        </is>
+      <c r="N13" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>126</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -2811,10 +2765,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
-        </is>
+      <c r="K14" t="n">
+        <v>60000168</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
@@ -2822,9 +2774,7 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N14" t="n">
-        <v>60000168</v>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -2905,26 +2855,18 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K15" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>125</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -3005,10 +2947,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
-        </is>
+      <c r="K16" t="n">
+        <v>60000168</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
@@ -3017,7 +2957,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>60000168</v>
+        <v>60000169</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -3085,25 +3025,19 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K17" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>125</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
+      <c r="N17" t="n">
+        <v>60000169</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -3171,30 +3105,22 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K18" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>125</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
-        </is>
+      <c r="N18" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="O18" t="n">
+        <v>126</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -3261,10 +3187,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
-        </is>
+      <c r="K19" t="n">
+        <v>60000168</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
@@ -3272,9 +3196,7 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N19" t="n">
-        <v>60000168</v>
-      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -3351,26 +3273,18 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K20" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>125</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -3447,10 +3361,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
-        </is>
+      <c r="K21" t="n">
+        <v>60000168</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
@@ -3459,7 +3371,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>60000168</v>
+        <v>60000169</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -3523,25 +3435,19 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K22" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>125</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
+      <c r="N22" t="n">
+        <v>60000169</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
@@ -3605,30 +3511,22 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K23" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>125</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
-        </is>
+      <c r="N23" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="O23" t="n">
+        <v>126</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -3691,10 +3589,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
-        </is>
+      <c r="K24" t="n">
+        <v>60000168</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
@@ -3702,9 +3598,7 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N24" t="n">
-        <v>60000168</v>
-      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
@@ -3777,26 +3671,18 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K25" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>125</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
@@ -3877,10 +3763,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
-        </is>
+      <c r="K26" t="n">
+        <v>60000168</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
@@ -3889,7 +3773,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>60000168</v>
+        <v>60000169</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
@@ -3961,25 +3845,19 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K27" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>125</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
+      <c r="N27" t="n">
+        <v>60000169</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
@@ -4051,30 +3929,22 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K28" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>125</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
-        </is>
+      <c r="N28" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="O28" t="n">
+        <v>126</v>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
@@ -4145,10 +4015,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_MAIN</t>
-        </is>
+      <c r="K29" t="n">
+        <v>60000168</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
@@ -4156,9 +4024,7 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N29" t="n">
-        <v>60000168</v>
-      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2193,19 +2193,25 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K7" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>125</v>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N7" t="n">
-        <v>60000169</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -2269,22 +2275,30 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K8" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>125</v>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N8" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>126</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
+        </is>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -2429,11 +2443,15 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K10" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="L10" t="n">
-        <v>125</v>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -2522,8 +2540,10 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N11" t="n">
-        <v>60000169</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -2595,19 +2615,25 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K12" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="L12" t="n">
-        <v>125</v>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N12" t="n">
-        <v>60000169</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -2679,22 +2705,30 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K13" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="L13" t="n">
-        <v>125</v>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N13" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>126</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
+        </is>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -2855,11 +2889,15 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K15" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="L15" t="n">
-        <v>125</v>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -2956,8 +2994,10 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N16" t="n">
-        <v>60000169</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -3025,19 +3065,25 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K17" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="L17" t="n">
-        <v>125</v>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N17" t="n">
-        <v>60000169</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -3105,22 +3151,30 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K18" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="L18" t="n">
-        <v>125</v>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N18" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="O18" t="n">
-        <v>126</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
+        </is>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -3273,11 +3327,15 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K20" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="L20" t="n">
-        <v>125</v>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -3370,8 +3428,10 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>60000169</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -3435,19 +3495,25 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K22" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="L22" t="n">
-        <v>125</v>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>60000169</v>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
@@ -3511,22 +3577,30 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K23" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="L23" t="n">
-        <v>125</v>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N23" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="O23" t="n">
-        <v>126</v>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
+        </is>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -3671,11 +3745,15 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K25" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="L25" t="n">
-        <v>125</v>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -3772,8 +3850,10 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N26" t="n">
-        <v>60000169</v>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
@@ -3845,19 +3925,25 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K27" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="L27" t="n">
-        <v>125</v>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>60000169</v>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
@@ -3929,22 +4015,30 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K28" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="L28" t="n">
-        <v>125</v>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
+        </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N28" t="n">
-        <v>60000000</v>
-      </c>
-      <c r="O28" t="n">
-        <v>126</v>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
+        </is>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2193,25 +2193,19 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K7" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>125</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-        </is>
+      <c r="N7" t="n">
+        <v>60000169</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -2275,25 +2269,19 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K8" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>125</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
-        </is>
+      <c r="N8" t="n">
+        <v>60000000</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -2443,15 +2431,11 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K10" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>125</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -2540,10 +2524,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-        </is>
+      <c r="N11" t="n">
+        <v>60000169</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -2615,25 +2597,19 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K12" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>125</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-        </is>
+      <c r="N12" t="n">
+        <v>60000169</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -2705,25 +2681,19 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K13" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>125</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
-        </is>
+      <c r="N13" t="n">
+        <v>60000000</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -2889,15 +2859,11 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K15" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>125</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -2994,10 +2960,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-        </is>
+      <c r="N16" t="n">
+        <v>60000169</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -3065,25 +3029,19 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K17" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>125</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-        </is>
+      <c r="N17" t="n">
+        <v>60000169</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -3151,25 +3109,19 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K18" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>125</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
-        </is>
+      <c r="N18" t="n">
+        <v>60000000</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -3327,15 +3279,11 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K20" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>125</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -3428,10 +3376,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-        </is>
+      <c r="N21" t="n">
+        <v>60000169</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -3495,25 +3441,19 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K22" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>125</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-        </is>
+      <c r="N22" t="n">
+        <v>60000169</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
@@ -3577,25 +3517,19 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K23" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>125</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
-        </is>
+      <c r="N23" t="n">
+        <v>60000000</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -3745,15 +3679,11 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K25" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>125</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -3850,10 +3780,8 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-        </is>
+      <c r="N26" t="n">
+        <v>60000169</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
@@ -3925,25 +3853,19 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K27" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>125</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_MAIN</t>
-        </is>
+      <c r="N27" t="n">
+        <v>60000169</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
@@ -4015,25 +3937,19 @@
           <t>1710</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB_MAIN</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_SENDER_SUB</t>
-        </is>
+      <c r="K28" t="n">
+        <v>60000000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>125</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>1710</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB_MAIN</t>
-        </is>
+      <c r="N28" t="n">
+        <v>60000000</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2283,10 +2283,8 @@
       <c r="N8" t="n">
         <v>60000000</v>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
-        </is>
+      <c r="O8" t="n">
+        <v>126</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -2695,10 +2693,8 @@
       <c r="N13" t="n">
         <v>60000000</v>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
-        </is>
+      <c r="O13" t="n">
+        <v>126</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -3123,10 +3119,8 @@
       <c r="N18" t="n">
         <v>60000000</v>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
-        </is>
+      <c r="O18" t="n">
+        <v>126</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -3531,10 +3525,8 @@
       <c r="N23" t="n">
         <v>60000000</v>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
-        </is>
+      <c r="O23" t="n">
+        <v>126</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -3951,10 +3943,8 @@
       <c r="N28" t="n">
         <v>60000000</v>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>MPA_TRANSFER_SCENARIO_INTRA_REC_SUB</t>
-        </is>
+      <c r="O28" t="n">
+        <v>126</v>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>60000168</v>
+        <v>60000174</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
@@ -2197,7 +2197,7 @@
         <v>60000000</v>
       </c>
       <c r="L7" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>60000169</v>
+        <v>60000175</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -2273,7 +2273,7 @@
         <v>60000000</v>
       </c>
       <c r="L8" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>60000000</v>
       </c>
       <c r="O8" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>60000168</v>
+        <v>60000174</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
@@ -2433,7 +2433,7 @@
         <v>60000000</v>
       </c>
       <c r="L10" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>60000168</v>
+        <v>60000174</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
@@ -2523,7 +2523,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>60000169</v>
+        <v>60000175</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -2599,7 +2599,7 @@
         <v>60000000</v>
       </c>
       <c r="L12" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>60000169</v>
+        <v>60000175</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -2683,7 +2683,7 @@
         <v>60000000</v>
       </c>
       <c r="L13" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>60000000</v>
       </c>
       <c r="O13" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -2766,7 +2766,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>60000168</v>
+        <v>60000174</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
@@ -2859,7 +2859,7 @@
         <v>60000000</v>
       </c>
       <c r="L15" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>60000168</v>
+        <v>60000174</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>60000169</v>
+        <v>60000175</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         <v>60000000</v>
       </c>
       <c r="L17" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>60000169</v>
+        <v>60000175</v>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -3109,7 +3109,7 @@
         <v>60000000</v>
       </c>
       <c r="L18" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>60000000</v>
       </c>
       <c r="O18" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>60000168</v>
+        <v>60000174</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
@@ -3277,7 +3277,7 @@
         <v>60000000</v>
       </c>
       <c r="L20" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>60000168</v>
+        <v>60000174</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>60000169</v>
+        <v>60000175</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -3439,7 +3439,7 @@
         <v>60000000</v>
       </c>
       <c r="L22" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>60000169</v>
+        <v>60000175</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
@@ -3515,7 +3515,7 @@
         <v>60000000</v>
       </c>
       <c r="L23" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>60000000</v>
       </c>
       <c r="O23" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>60000168</v>
+        <v>60000174</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
@@ -3675,7 +3675,7 @@
         <v>60000000</v>
       </c>
       <c r="L25" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>60000168</v>
+        <v>60000174</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
@@ -3773,7 +3773,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>60000169</v>
+        <v>60000175</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
@@ -3849,7 +3849,7 @@
         <v>60000000</v>
       </c>
       <c r="L27" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>60000169</v>
+        <v>60000175</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
@@ -3933,7 +3933,7 @@
         <v>60000000</v>
       </c>
       <c r="L28" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>60000000</v>
       </c>
       <c r="O28" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>60000168</v>
+        <v>60000174</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2017,7 +2017,7 @@
         <v>201</v>
       </c>
       <c r="K6">
-        <v>60000178</v>
+        <v>60000215</v>
       </c>
       <c r="M6" t="s">
         <v>201</v>
@@ -2064,13 +2064,13 @@
         <v>60000000</v>
       </c>
       <c r="L7">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="M7" t="s">
         <v>201</v>
       </c>
       <c r="N7">
-        <v>60000179</v>
+        <v>60000216</v>
       </c>
       <c r="U7" t="s">
         <v>213</v>
@@ -2105,7 +2105,7 @@
         <v>60000000</v>
       </c>
       <c r="L8">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="M8" t="s">
         <v>201</v>
@@ -2114,7 +2114,7 @@
         <v>60000000</v>
       </c>
       <c r="O8">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="U8" t="s">
         <v>213</v>
@@ -2146,7 +2146,7 @@
         <v>201</v>
       </c>
       <c r="K9">
-        <v>60000178</v>
+        <v>60000215</v>
       </c>
       <c r="M9" t="s">
         <v>201</v>
@@ -2193,7 +2193,7 @@
         <v>60000000</v>
       </c>
       <c r="L10">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="M10" t="s">
         <v>201</v>
@@ -2237,13 +2237,13 @@
         <v>201</v>
       </c>
       <c r="K11">
-        <v>60000178</v>
+        <v>60000215</v>
       </c>
       <c r="M11" t="s">
         <v>201</v>
       </c>
       <c r="N11">
-        <v>60000179</v>
+        <v>60000216</v>
       </c>
       <c r="U11" t="s">
         <v>213</v>
@@ -2284,13 +2284,13 @@
         <v>60000000</v>
       </c>
       <c r="L12">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="M12" t="s">
         <v>201</v>
       </c>
       <c r="N12">
-        <v>60000179</v>
+        <v>60000216</v>
       </c>
       <c r="U12" t="s">
         <v>213</v>
@@ -2331,7 +2331,7 @@
         <v>60000000</v>
       </c>
       <c r="L13">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s">
         <v>201</v>
@@ -2340,7 +2340,7 @@
         <v>60000000</v>
       </c>
       <c r="O13">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="U13" t="s">
         <v>213</v>
@@ -2378,7 +2378,7 @@
         <v>201</v>
       </c>
       <c r="K14">
-        <v>60000178</v>
+        <v>60000215</v>
       </c>
       <c r="M14" t="s">
         <v>201</v>
@@ -2431,7 +2431,7 @@
         <v>60000000</v>
       </c>
       <c r="L15">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="M15" t="s">
         <v>201</v>
@@ -2481,13 +2481,13 @@
         <v>201</v>
       </c>
       <c r="K16">
-        <v>60000178</v>
+        <v>60000215</v>
       </c>
       <c r="M16" t="s">
         <v>201</v>
       </c>
       <c r="N16">
-        <v>60000179</v>
+        <v>60000216</v>
       </c>
       <c r="U16" t="s">
         <v>213</v>
@@ -2525,13 +2525,13 @@
         <v>60000000</v>
       </c>
       <c r="L17">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="M17" t="s">
         <v>201</v>
       </c>
       <c r="N17">
-        <v>60000179</v>
+        <v>60000216</v>
       </c>
       <c r="U17" t="s">
         <v>213</v>
@@ -2569,7 +2569,7 @@
         <v>60000000</v>
       </c>
       <c r="L18">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="M18" t="s">
         <v>201</v>
@@ -2578,7 +2578,7 @@
         <v>60000000</v>
       </c>
       <c r="O18">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="U18" t="s">
         <v>213</v>
@@ -2613,7 +2613,7 @@
         <v>201</v>
       </c>
       <c r="K19">
-        <v>60000178</v>
+        <v>60000215</v>
       </c>
       <c r="M19" t="s">
         <v>201</v>
@@ -2663,7 +2663,7 @@
         <v>60000000</v>
       </c>
       <c r="L20">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="M20" t="s">
         <v>201</v>
@@ -2710,13 +2710,13 @@
         <v>201</v>
       </c>
       <c r="K21">
-        <v>60000178</v>
+        <v>60000215</v>
       </c>
       <c r="M21" t="s">
         <v>201</v>
       </c>
       <c r="N21">
-        <v>60000179</v>
+        <v>60000216</v>
       </c>
       <c r="U21" t="s">
         <v>213</v>
@@ -2751,13 +2751,13 @@
         <v>60000000</v>
       </c>
       <c r="L22">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="M22" t="s">
         <v>201</v>
       </c>
       <c r="N22">
-        <v>60000179</v>
+        <v>60000216</v>
       </c>
       <c r="U22" t="s">
         <v>213</v>
@@ -2792,7 +2792,7 @@
         <v>60000000</v>
       </c>
       <c r="L23">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="M23" t="s">
         <v>201</v>
@@ -2801,7 +2801,7 @@
         <v>60000000</v>
       </c>
       <c r="O23">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="U23" t="s">
         <v>213</v>
@@ -2833,7 +2833,7 @@
         <v>201</v>
       </c>
       <c r="K24">
-        <v>60000178</v>
+        <v>60000215</v>
       </c>
       <c r="M24" t="s">
         <v>201</v>
@@ -2880,7 +2880,7 @@
         <v>60000000</v>
       </c>
       <c r="L25">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s">
         <v>201</v>
@@ -2930,13 +2930,13 @@
         <v>201</v>
       </c>
       <c r="K26">
-        <v>60000178</v>
+        <v>60000215</v>
       </c>
       <c r="M26" t="s">
         <v>201</v>
       </c>
       <c r="N26">
-        <v>60000179</v>
+        <v>60000216</v>
       </c>
       <c r="U26" t="s">
         <v>213</v>
@@ -2977,13 +2977,13 @@
         <v>60000000</v>
       </c>
       <c r="L27">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="M27" t="s">
         <v>201</v>
       </c>
       <c r="N27">
-        <v>60000179</v>
+        <v>60000216</v>
       </c>
       <c r="U27" t="s">
         <v>213</v>
@@ -3024,7 +3024,7 @@
         <v>60000000</v>
       </c>
       <c r="L28">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="M28" t="s">
         <v>201</v>
@@ -3033,7 +3033,7 @@
         <v>60000000</v>
       </c>
       <c r="O28">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="U28" t="s">
         <v>213</v>
@@ -3071,7 +3071,7 @@
         <v>201</v>
       </c>
       <c r="K29">
-        <v>60000178</v>
+        <v>60000215</v>
       </c>
       <c r="M29" t="s">
         <v>201</v>

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2017,7 +2017,7 @@
         <v>201</v>
       </c>
       <c r="K6">
-        <v>60000215</v>
+        <v>60000231</v>
       </c>
       <c r="M6" t="s">
         <v>201</v>
@@ -2064,13 +2064,13 @@
         <v>60000000</v>
       </c>
       <c r="L7">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M7" t="s">
         <v>201</v>
       </c>
       <c r="N7">
-        <v>60000216</v>
+        <v>60000232</v>
       </c>
       <c r="U7" t="s">
         <v>213</v>
@@ -2105,7 +2105,7 @@
         <v>60000000</v>
       </c>
       <c r="L8">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M8" t="s">
         <v>201</v>
@@ -2114,7 +2114,7 @@
         <v>60000000</v>
       </c>
       <c r="O8">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="U8" t="s">
         <v>213</v>
@@ -2146,7 +2146,7 @@
         <v>201</v>
       </c>
       <c r="K9">
-        <v>60000215</v>
+        <v>60000231</v>
       </c>
       <c r="M9" t="s">
         <v>201</v>
@@ -2193,7 +2193,7 @@
         <v>60000000</v>
       </c>
       <c r="L10">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M10" t="s">
         <v>201</v>
@@ -2237,13 +2237,13 @@
         <v>201</v>
       </c>
       <c r="K11">
-        <v>60000215</v>
+        <v>60000231</v>
       </c>
       <c r="M11" t="s">
         <v>201</v>
       </c>
       <c r="N11">
-        <v>60000216</v>
+        <v>60000232</v>
       </c>
       <c r="U11" t="s">
         <v>213</v>
@@ -2284,13 +2284,13 @@
         <v>60000000</v>
       </c>
       <c r="L12">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M12" t="s">
         <v>201</v>
       </c>
       <c r="N12">
-        <v>60000216</v>
+        <v>60000232</v>
       </c>
       <c r="U12" t="s">
         <v>213</v>
@@ -2331,7 +2331,7 @@
         <v>60000000</v>
       </c>
       <c r="L13">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M13" t="s">
         <v>201</v>
@@ -2340,7 +2340,7 @@
         <v>60000000</v>
       </c>
       <c r="O13">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="U13" t="s">
         <v>213</v>
@@ -2378,7 +2378,7 @@
         <v>201</v>
       </c>
       <c r="K14">
-        <v>60000215</v>
+        <v>60000231</v>
       </c>
       <c r="M14" t="s">
         <v>201</v>
@@ -2431,7 +2431,7 @@
         <v>60000000</v>
       </c>
       <c r="L15">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s">
         <v>201</v>
@@ -2481,13 +2481,13 @@
         <v>201</v>
       </c>
       <c r="K16">
-        <v>60000215</v>
+        <v>60000231</v>
       </c>
       <c r="M16" t="s">
         <v>201</v>
       </c>
       <c r="N16">
-        <v>60000216</v>
+        <v>60000232</v>
       </c>
       <c r="U16" t="s">
         <v>213</v>
@@ -2525,13 +2525,13 @@
         <v>60000000</v>
       </c>
       <c r="L17">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s">
         <v>201</v>
       </c>
       <c r="N17">
-        <v>60000216</v>
+        <v>60000232</v>
       </c>
       <c r="U17" t="s">
         <v>213</v>
@@ -2569,7 +2569,7 @@
         <v>60000000</v>
       </c>
       <c r="L18">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s">
         <v>201</v>
@@ -2578,7 +2578,7 @@
         <v>60000000</v>
       </c>
       <c r="O18">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="U18" t="s">
         <v>213</v>
@@ -2613,7 +2613,7 @@
         <v>201</v>
       </c>
       <c r="K19">
-        <v>60000215</v>
+        <v>60000231</v>
       </c>
       <c r="M19" t="s">
         <v>201</v>
@@ -2663,7 +2663,7 @@
         <v>60000000</v>
       </c>
       <c r="L20">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M20" t="s">
         <v>201</v>
@@ -2710,13 +2710,13 @@
         <v>201</v>
       </c>
       <c r="K21">
-        <v>60000215</v>
+        <v>60000231</v>
       </c>
       <c r="M21" t="s">
         <v>201</v>
       </c>
       <c r="N21">
-        <v>60000216</v>
+        <v>60000232</v>
       </c>
       <c r="U21" t="s">
         <v>213</v>
@@ -2751,13 +2751,13 @@
         <v>60000000</v>
       </c>
       <c r="L22">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M22" t="s">
         <v>201</v>
       </c>
       <c r="N22">
-        <v>60000216</v>
+        <v>60000232</v>
       </c>
       <c r="U22" t="s">
         <v>213</v>
@@ -2792,7 +2792,7 @@
         <v>60000000</v>
       </c>
       <c r="L23">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M23" t="s">
         <v>201</v>
@@ -2801,7 +2801,7 @@
         <v>60000000</v>
       </c>
       <c r="O23">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="U23" t="s">
         <v>213</v>
@@ -2833,7 +2833,7 @@
         <v>201</v>
       </c>
       <c r="K24">
-        <v>60000215</v>
+        <v>60000231</v>
       </c>
       <c r="M24" t="s">
         <v>201</v>
@@ -2880,7 +2880,7 @@
         <v>60000000</v>
       </c>
       <c r="L25">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M25" t="s">
         <v>201</v>
@@ -2930,13 +2930,13 @@
         <v>201</v>
       </c>
       <c r="K26">
-        <v>60000215</v>
+        <v>60000231</v>
       </c>
       <c r="M26" t="s">
         <v>201</v>
       </c>
       <c r="N26">
-        <v>60000216</v>
+        <v>60000232</v>
       </c>
       <c r="U26" t="s">
         <v>213</v>
@@ -2977,13 +2977,13 @@
         <v>60000000</v>
       </c>
       <c r="L27">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M27" t="s">
         <v>201</v>
       </c>
       <c r="N27">
-        <v>60000216</v>
+        <v>60000232</v>
       </c>
       <c r="U27" t="s">
         <v>213</v>
@@ -3024,7 +3024,7 @@
         <v>60000000</v>
       </c>
       <c r="L28">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M28" t="s">
         <v>201</v>
@@ -3033,7 +3033,7 @@
         <v>60000000</v>
       </c>
       <c r="O28">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="U28" t="s">
         <v>213</v>
@@ -3071,7 +3071,7 @@
         <v>201</v>
       </c>
       <c r="K29">
-        <v>60000215</v>
+        <v>60000231</v>
       </c>
       <c r="M29" t="s">
         <v>201</v>

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2017,7 +2017,7 @@
         <v>201</v>
       </c>
       <c r="K6">
-        <v>60000231</v>
+        <v>60000288</v>
       </c>
       <c r="M6" t="s">
         <v>201</v>
@@ -2064,13 +2064,13 @@
         <v>60000000</v>
       </c>
       <c r="L7">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="M7" t="s">
         <v>201</v>
       </c>
       <c r="N7">
-        <v>60000232</v>
+        <v>60000289</v>
       </c>
       <c r="U7" t="s">
         <v>213</v>
@@ -2105,7 +2105,7 @@
         <v>60000000</v>
       </c>
       <c r="L8">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="M8" t="s">
         <v>201</v>
@@ -2114,7 +2114,7 @@
         <v>60000000</v>
       </c>
       <c r="O8">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="U8" t="s">
         <v>213</v>
@@ -2146,7 +2146,7 @@
         <v>201</v>
       </c>
       <c r="K9">
-        <v>60000231</v>
+        <v>60000288</v>
       </c>
       <c r="M9" t="s">
         <v>201</v>
@@ -2193,7 +2193,7 @@
         <v>60000000</v>
       </c>
       <c r="L10">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="M10" t="s">
         <v>201</v>
@@ -2237,13 +2237,13 @@
         <v>201</v>
       </c>
       <c r="K11">
-        <v>60000231</v>
+        <v>60000288</v>
       </c>
       <c r="M11" t="s">
         <v>201</v>
       </c>
       <c r="N11">
-        <v>60000232</v>
+        <v>60000289</v>
       </c>
       <c r="U11" t="s">
         <v>213</v>
@@ -2284,13 +2284,13 @@
         <v>60000000</v>
       </c>
       <c r="L12">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="M12" t="s">
         <v>201</v>
       </c>
       <c r="N12">
-        <v>60000232</v>
+        <v>60000289</v>
       </c>
       <c r="U12" t="s">
         <v>213</v>
@@ -2331,7 +2331,7 @@
         <v>60000000</v>
       </c>
       <c r="L13">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="M13" t="s">
         <v>201</v>
@@ -2340,7 +2340,7 @@
         <v>60000000</v>
       </c>
       <c r="O13">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="U13" t="s">
         <v>213</v>
@@ -2378,7 +2378,7 @@
         <v>201</v>
       </c>
       <c r="K14">
-        <v>60000231</v>
+        <v>60000288</v>
       </c>
       <c r="M14" t="s">
         <v>201</v>
@@ -2431,7 +2431,7 @@
         <v>60000000</v>
       </c>
       <c r="L15">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="M15" t="s">
         <v>201</v>
@@ -2481,13 +2481,13 @@
         <v>201</v>
       </c>
       <c r="K16">
-        <v>60000231</v>
+        <v>60000288</v>
       </c>
       <c r="M16" t="s">
         <v>201</v>
       </c>
       <c r="N16">
-        <v>60000232</v>
+        <v>60000289</v>
       </c>
       <c r="U16" t="s">
         <v>213</v>
@@ -2525,13 +2525,13 @@
         <v>60000000</v>
       </c>
       <c r="L17">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="M17" t="s">
         <v>201</v>
       </c>
       <c r="N17">
-        <v>60000232</v>
+        <v>60000289</v>
       </c>
       <c r="U17" t="s">
         <v>213</v>
@@ -2569,7 +2569,7 @@
         <v>60000000</v>
       </c>
       <c r="L18">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="M18" t="s">
         <v>201</v>
@@ -2578,7 +2578,7 @@
         <v>60000000</v>
       </c>
       <c r="O18">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="U18" t="s">
         <v>213</v>
@@ -2613,7 +2613,7 @@
         <v>201</v>
       </c>
       <c r="K19">
-        <v>60000231</v>
+        <v>60000288</v>
       </c>
       <c r="M19" t="s">
         <v>201</v>
@@ -2663,7 +2663,7 @@
         <v>60000000</v>
       </c>
       <c r="L20">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="M20" t="s">
         <v>201</v>
@@ -2710,13 +2710,13 @@
         <v>201</v>
       </c>
       <c r="K21">
-        <v>60000231</v>
+        <v>60000288</v>
       </c>
       <c r="M21" t="s">
         <v>201</v>
       </c>
       <c r="N21">
-        <v>60000232</v>
+        <v>60000289</v>
       </c>
       <c r="U21" t="s">
         <v>213</v>
@@ -2751,13 +2751,13 @@
         <v>60000000</v>
       </c>
       <c r="L22">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s">
         <v>201</v>
       </c>
       <c r="N22">
-        <v>60000232</v>
+        <v>60000289</v>
       </c>
       <c r="U22" t="s">
         <v>213</v>
@@ -2792,7 +2792,7 @@
         <v>60000000</v>
       </c>
       <c r="L23">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s">
         <v>201</v>
@@ -2801,7 +2801,7 @@
         <v>60000000</v>
       </c>
       <c r="O23">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="U23" t="s">
         <v>213</v>
@@ -2833,7 +2833,7 @@
         <v>201</v>
       </c>
       <c r="K24">
-        <v>60000231</v>
+        <v>60000288</v>
       </c>
       <c r="M24" t="s">
         <v>201</v>
@@ -2880,7 +2880,7 @@
         <v>60000000</v>
       </c>
       <c r="L25">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s">
         <v>201</v>
@@ -2930,13 +2930,13 @@
         <v>201</v>
       </c>
       <c r="K26">
-        <v>60000231</v>
+        <v>60000288</v>
       </c>
       <c r="M26" t="s">
         <v>201</v>
       </c>
       <c r="N26">
-        <v>60000232</v>
+        <v>60000289</v>
       </c>
       <c r="U26" t="s">
         <v>213</v>
@@ -2977,13 +2977,13 @@
         <v>60000000</v>
       </c>
       <c r="L27">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="M27" t="s">
         <v>201</v>
       </c>
       <c r="N27">
-        <v>60000232</v>
+        <v>60000289</v>
       </c>
       <c r="U27" t="s">
         <v>213</v>
@@ -3024,7 +3024,7 @@
         <v>60000000</v>
       </c>
       <c r="L28">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="M28" t="s">
         <v>201</v>
@@ -3033,7 +3033,7 @@
         <v>60000000</v>
       </c>
       <c r="O28">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="U28" t="s">
         <v>213</v>
@@ -3071,7 +3071,7 @@
         <v>201</v>
       </c>
       <c r="K29">
-        <v>60000231</v>
+        <v>60000288</v>
       </c>
       <c r="M29" t="s">
         <v>201</v>

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -507,7 +507,7 @@
     <t>*Document Date in Document (YYYY-MM-DD)</t>
   </si>
   <si>
-    <t>2022-01-02</t>
+    <t>2022-01-05</t>
   </si>
   <si>
     <t>*Posting Date in the Document (YYYY-MM-DD)</t>

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2017,7 +2017,7 @@
         <v>201</v>
       </c>
       <c r="K6">
-        <v>60000288</v>
+        <v>60000306</v>
       </c>
       <c r="M6" t="s">
         <v>201</v>
@@ -2064,13 +2064,13 @@
         <v>60000000</v>
       </c>
       <c r="L7">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M7" t="s">
         <v>201</v>
       </c>
       <c r="N7">
-        <v>60000289</v>
+        <v>60000307</v>
       </c>
       <c r="U7" t="s">
         <v>213</v>
@@ -2105,7 +2105,7 @@
         <v>60000000</v>
       </c>
       <c r="L8">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M8" t="s">
         <v>201</v>
@@ -2114,7 +2114,7 @@
         <v>60000000</v>
       </c>
       <c r="O8">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="U8" t="s">
         <v>213</v>
@@ -2146,7 +2146,7 @@
         <v>201</v>
       </c>
       <c r="K9">
-        <v>60000288</v>
+        <v>60000306</v>
       </c>
       <c r="M9" t="s">
         <v>201</v>
@@ -2193,7 +2193,7 @@
         <v>60000000</v>
       </c>
       <c r="L10">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M10" t="s">
         <v>201</v>
@@ -2237,13 +2237,13 @@
         <v>201</v>
       </c>
       <c r="K11">
-        <v>60000288</v>
+        <v>60000306</v>
       </c>
       <c r="M11" t="s">
         <v>201</v>
       </c>
       <c r="N11">
-        <v>60000289</v>
+        <v>60000307</v>
       </c>
       <c r="U11" t="s">
         <v>213</v>
@@ -2284,13 +2284,13 @@
         <v>60000000</v>
       </c>
       <c r="L12">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M12" t="s">
         <v>201</v>
       </c>
       <c r="N12">
-        <v>60000289</v>
+        <v>60000307</v>
       </c>
       <c r="U12" t="s">
         <v>213</v>
@@ -2331,7 +2331,7 @@
         <v>60000000</v>
       </c>
       <c r="L13">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M13" t="s">
         <v>201</v>
@@ -2340,7 +2340,7 @@
         <v>60000000</v>
       </c>
       <c r="O13">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="U13" t="s">
         <v>213</v>
@@ -2378,7 +2378,7 @@
         <v>201</v>
       </c>
       <c r="K14">
-        <v>60000288</v>
+        <v>60000306</v>
       </c>
       <c r="M14" t="s">
         <v>201</v>
@@ -2431,7 +2431,7 @@
         <v>60000000</v>
       </c>
       <c r="L15">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M15" t="s">
         <v>201</v>
@@ -2481,13 +2481,13 @@
         <v>201</v>
       </c>
       <c r="K16">
-        <v>60000288</v>
+        <v>60000306</v>
       </c>
       <c r="M16" t="s">
         <v>201</v>
       </c>
       <c r="N16">
-        <v>60000289</v>
+        <v>60000307</v>
       </c>
       <c r="U16" t="s">
         <v>213</v>
@@ -2525,13 +2525,13 @@
         <v>60000000</v>
       </c>
       <c r="L17">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M17" t="s">
         <v>201</v>
       </c>
       <c r="N17">
-        <v>60000289</v>
+        <v>60000307</v>
       </c>
       <c r="U17" t="s">
         <v>213</v>
@@ -2569,7 +2569,7 @@
         <v>60000000</v>
       </c>
       <c r="L18">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M18" t="s">
         <v>201</v>
@@ -2578,7 +2578,7 @@
         <v>60000000</v>
       </c>
       <c r="O18">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="U18" t="s">
         <v>213</v>
@@ -2613,7 +2613,7 @@
         <v>201</v>
       </c>
       <c r="K19">
-        <v>60000288</v>
+        <v>60000306</v>
       </c>
       <c r="M19" t="s">
         <v>201</v>
@@ -2663,7 +2663,7 @@
         <v>60000000</v>
       </c>
       <c r="L20">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M20" t="s">
         <v>201</v>
@@ -2710,13 +2710,13 @@
         <v>201</v>
       </c>
       <c r="K21">
-        <v>60000288</v>
+        <v>60000306</v>
       </c>
       <c r="M21" t="s">
         <v>201</v>
       </c>
       <c r="N21">
-        <v>60000289</v>
+        <v>60000307</v>
       </c>
       <c r="U21" t="s">
         <v>213</v>
@@ -2751,13 +2751,13 @@
         <v>60000000</v>
       </c>
       <c r="L22">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s">
         <v>201</v>
       </c>
       <c r="N22">
-        <v>60000289</v>
+        <v>60000307</v>
       </c>
       <c r="U22" t="s">
         <v>213</v>
@@ -2792,7 +2792,7 @@
         <v>60000000</v>
       </c>
       <c r="L23">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s">
         <v>201</v>
@@ -2801,7 +2801,7 @@
         <v>60000000</v>
       </c>
       <c r="O23">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="U23" t="s">
         <v>213</v>
@@ -2833,7 +2833,7 @@
         <v>201</v>
       </c>
       <c r="K24">
-        <v>60000288</v>
+        <v>60000306</v>
       </c>
       <c r="M24" t="s">
         <v>201</v>
@@ -2880,7 +2880,7 @@
         <v>60000000</v>
       </c>
       <c r="L25">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s">
         <v>201</v>
@@ -2930,13 +2930,13 @@
         <v>201</v>
       </c>
       <c r="K26">
-        <v>60000288</v>
+        <v>60000306</v>
       </c>
       <c r="M26" t="s">
         <v>201</v>
       </c>
       <c r="N26">
-        <v>60000289</v>
+        <v>60000307</v>
       </c>
       <c r="U26" t="s">
         <v>213</v>
@@ -2977,13 +2977,13 @@
         <v>60000000</v>
       </c>
       <c r="L27">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s">
         <v>201</v>
       </c>
       <c r="N27">
-        <v>60000289</v>
+        <v>60000307</v>
       </c>
       <c r="U27" t="s">
         <v>213</v>
@@ -3024,7 +3024,7 @@
         <v>60000000</v>
       </c>
       <c r="L28">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s">
         <v>201</v>
@@ -3033,7 +3033,7 @@
         <v>60000000</v>
       </c>
       <c r="O28">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="U28" t="s">
         <v>213</v>
@@ -3071,7 +3071,7 @@
         <v>201</v>
       </c>
       <c r="K29">
-        <v>60000288</v>
+        <v>60000306</v>
       </c>
       <c r="M29" t="s">
         <v>201</v>

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2017,7 +2017,7 @@
         <v>201</v>
       </c>
       <c r="K6">
-        <v>60000306</v>
+        <v>60000339</v>
       </c>
       <c r="M6" t="s">
         <v>201</v>
@@ -2064,13 +2064,13 @@
         <v>60000000</v>
       </c>
       <c r="L7">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M7" t="s">
         <v>201</v>
       </c>
       <c r="N7">
-        <v>60000307</v>
+        <v>60000340</v>
       </c>
       <c r="U7" t="s">
         <v>213</v>
@@ -2105,7 +2105,7 @@
         <v>60000000</v>
       </c>
       <c r="L8">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M8" t="s">
         <v>201</v>
@@ -2114,7 +2114,7 @@
         <v>60000000</v>
       </c>
       <c r="O8">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="U8" t="s">
         <v>213</v>
@@ -2146,7 +2146,7 @@
         <v>201</v>
       </c>
       <c r="K9">
-        <v>60000306</v>
+        <v>60000339</v>
       </c>
       <c r="M9" t="s">
         <v>201</v>
@@ -2193,7 +2193,7 @@
         <v>60000000</v>
       </c>
       <c r="L10">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M10" t="s">
         <v>201</v>
@@ -2237,13 +2237,13 @@
         <v>201</v>
       </c>
       <c r="K11">
-        <v>60000306</v>
+        <v>60000339</v>
       </c>
       <c r="M11" t="s">
         <v>201</v>
       </c>
       <c r="N11">
-        <v>60000307</v>
+        <v>60000340</v>
       </c>
       <c r="U11" t="s">
         <v>213</v>
@@ -2284,13 +2284,13 @@
         <v>60000000</v>
       </c>
       <c r="L12">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M12" t="s">
         <v>201</v>
       </c>
       <c r="N12">
-        <v>60000307</v>
+        <v>60000340</v>
       </c>
       <c r="U12" t="s">
         <v>213</v>
@@ -2331,7 +2331,7 @@
         <v>60000000</v>
       </c>
       <c r="L13">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M13" t="s">
         <v>201</v>
@@ -2340,7 +2340,7 @@
         <v>60000000</v>
       </c>
       <c r="O13">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="U13" t="s">
         <v>213</v>
@@ -2378,7 +2378,7 @@
         <v>201</v>
       </c>
       <c r="K14">
-        <v>60000306</v>
+        <v>60000339</v>
       </c>
       <c r="M14" t="s">
         <v>201</v>
@@ -2431,7 +2431,7 @@
         <v>60000000</v>
       </c>
       <c r="L15">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M15" t="s">
         <v>201</v>
@@ -2481,13 +2481,13 @@
         <v>201</v>
       </c>
       <c r="K16">
-        <v>60000306</v>
+        <v>60000339</v>
       </c>
       <c r="M16" t="s">
         <v>201</v>
       </c>
       <c r="N16">
-        <v>60000307</v>
+        <v>60000340</v>
       </c>
       <c r="U16" t="s">
         <v>213</v>
@@ -2525,13 +2525,13 @@
         <v>60000000</v>
       </c>
       <c r="L17">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M17" t="s">
         <v>201</v>
       </c>
       <c r="N17">
-        <v>60000307</v>
+        <v>60000340</v>
       </c>
       <c r="U17" t="s">
         <v>213</v>
@@ -2569,7 +2569,7 @@
         <v>60000000</v>
       </c>
       <c r="L18">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M18" t="s">
         <v>201</v>
@@ -2578,7 +2578,7 @@
         <v>60000000</v>
       </c>
       <c r="O18">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="U18" t="s">
         <v>213</v>
@@ -2613,7 +2613,7 @@
         <v>201</v>
       </c>
       <c r="K19">
-        <v>60000306</v>
+        <v>60000339</v>
       </c>
       <c r="M19" t="s">
         <v>201</v>
@@ -2663,7 +2663,7 @@
         <v>60000000</v>
       </c>
       <c r="L20">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M20" t="s">
         <v>201</v>
@@ -2710,13 +2710,13 @@
         <v>201</v>
       </c>
       <c r="K21">
-        <v>60000306</v>
+        <v>60000339</v>
       </c>
       <c r="M21" t="s">
         <v>201</v>
       </c>
       <c r="N21">
-        <v>60000307</v>
+        <v>60000340</v>
       </c>
       <c r="U21" t="s">
         <v>213</v>
@@ -2751,13 +2751,13 @@
         <v>60000000</v>
       </c>
       <c r="L22">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M22" t="s">
         <v>201</v>
       </c>
       <c r="N22">
-        <v>60000307</v>
+        <v>60000340</v>
       </c>
       <c r="U22" t="s">
         <v>213</v>
@@ -2792,7 +2792,7 @@
         <v>60000000</v>
       </c>
       <c r="L23">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s">
         <v>201</v>
@@ -2801,7 +2801,7 @@
         <v>60000000</v>
       </c>
       <c r="O23">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="U23" t="s">
         <v>213</v>
@@ -2833,7 +2833,7 @@
         <v>201</v>
       </c>
       <c r="K24">
-        <v>60000306</v>
+        <v>60000339</v>
       </c>
       <c r="M24" t="s">
         <v>201</v>
@@ -2880,7 +2880,7 @@
         <v>60000000</v>
       </c>
       <c r="L25">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s">
         <v>201</v>
@@ -2930,13 +2930,13 @@
         <v>201</v>
       </c>
       <c r="K26">
-        <v>60000306</v>
+        <v>60000339</v>
       </c>
       <c r="M26" t="s">
         <v>201</v>
       </c>
       <c r="N26">
-        <v>60000307</v>
+        <v>60000340</v>
       </c>
       <c r="U26" t="s">
         <v>213</v>
@@ -2977,13 +2977,13 @@
         <v>60000000</v>
       </c>
       <c r="L27">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s">
         <v>201</v>
       </c>
       <c r="N27">
-        <v>60000307</v>
+        <v>60000340</v>
       </c>
       <c r="U27" t="s">
         <v>213</v>
@@ -3024,7 +3024,7 @@
         <v>60000000</v>
       </c>
       <c r="L28">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M28" t="s">
         <v>201</v>
@@ -3033,7 +3033,7 @@
         <v>60000000</v>
       </c>
       <c r="O28">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="U28" t="s">
         <v>213</v>
@@ -3071,7 +3071,7 @@
         <v>201</v>
       </c>
       <c r="K29">
-        <v>60000306</v>
+        <v>60000339</v>
       </c>
       <c r="M29" t="s">
         <v>201</v>

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2017,7 +2017,7 @@
         <v>201</v>
       </c>
       <c r="K6">
-        <v>60000339</v>
+        <v>60000347</v>
       </c>
       <c r="M6" t="s">
         <v>201</v>
@@ -2064,13 +2064,13 @@
         <v>60000000</v>
       </c>
       <c r="L7">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M7" t="s">
         <v>201</v>
       </c>
       <c r="N7">
-        <v>60000340</v>
+        <v>60000348</v>
       </c>
       <c r="U7" t="s">
         <v>213</v>
@@ -2105,7 +2105,7 @@
         <v>60000000</v>
       </c>
       <c r="L8">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M8" t="s">
         <v>201</v>
@@ -2114,7 +2114,7 @@
         <v>60000000</v>
       </c>
       <c r="O8">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="U8" t="s">
         <v>213</v>
@@ -2146,7 +2146,7 @@
         <v>201</v>
       </c>
       <c r="K9">
-        <v>60000339</v>
+        <v>60000347</v>
       </c>
       <c r="M9" t="s">
         <v>201</v>
@@ -2193,7 +2193,7 @@
         <v>60000000</v>
       </c>
       <c r="L10">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M10" t="s">
         <v>201</v>
@@ -2237,13 +2237,13 @@
         <v>201</v>
       </c>
       <c r="K11">
-        <v>60000339</v>
+        <v>60000347</v>
       </c>
       <c r="M11" t="s">
         <v>201</v>
       </c>
       <c r="N11">
-        <v>60000340</v>
+        <v>60000348</v>
       </c>
       <c r="U11" t="s">
         <v>213</v>
@@ -2284,13 +2284,13 @@
         <v>60000000</v>
       </c>
       <c r="L12">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M12" t="s">
         <v>201</v>
       </c>
       <c r="N12">
-        <v>60000340</v>
+        <v>60000348</v>
       </c>
       <c r="U12" t="s">
         <v>213</v>
@@ -2331,7 +2331,7 @@
         <v>60000000</v>
       </c>
       <c r="L13">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M13" t="s">
         <v>201</v>
@@ -2340,7 +2340,7 @@
         <v>60000000</v>
       </c>
       <c r="O13">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="U13" t="s">
         <v>213</v>
@@ -2378,7 +2378,7 @@
         <v>201</v>
       </c>
       <c r="K14">
-        <v>60000339</v>
+        <v>60000347</v>
       </c>
       <c r="M14" t="s">
         <v>201</v>
@@ -2431,7 +2431,7 @@
         <v>60000000</v>
       </c>
       <c r="L15">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M15" t="s">
         <v>201</v>
@@ -2481,13 +2481,13 @@
         <v>201</v>
       </c>
       <c r="K16">
-        <v>60000339</v>
+        <v>60000347</v>
       </c>
       <c r="M16" t="s">
         <v>201</v>
       </c>
       <c r="N16">
-        <v>60000340</v>
+        <v>60000348</v>
       </c>
       <c r="U16" t="s">
         <v>213</v>
@@ -2525,13 +2525,13 @@
         <v>60000000</v>
       </c>
       <c r="L17">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M17" t="s">
         <v>201</v>
       </c>
       <c r="N17">
-        <v>60000340</v>
+        <v>60000348</v>
       </c>
       <c r="U17" t="s">
         <v>213</v>
@@ -2569,7 +2569,7 @@
         <v>60000000</v>
       </c>
       <c r="L18">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M18" t="s">
         <v>201</v>
@@ -2578,7 +2578,7 @@
         <v>60000000</v>
       </c>
       <c r="O18">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="U18" t="s">
         <v>213</v>
@@ -2613,7 +2613,7 @@
         <v>201</v>
       </c>
       <c r="K19">
-        <v>60000339</v>
+        <v>60000347</v>
       </c>
       <c r="M19" t="s">
         <v>201</v>
@@ -2663,7 +2663,7 @@
         <v>60000000</v>
       </c>
       <c r="L20">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M20" t="s">
         <v>201</v>
@@ -2710,13 +2710,13 @@
         <v>201</v>
       </c>
       <c r="K21">
-        <v>60000339</v>
+        <v>60000347</v>
       </c>
       <c r="M21" t="s">
         <v>201</v>
       </c>
       <c r="N21">
-        <v>60000340</v>
+        <v>60000348</v>
       </c>
       <c r="U21" t="s">
         <v>213</v>
@@ -2751,13 +2751,13 @@
         <v>60000000</v>
       </c>
       <c r="L22">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M22" t="s">
         <v>201</v>
       </c>
       <c r="N22">
-        <v>60000340</v>
+        <v>60000348</v>
       </c>
       <c r="U22" t="s">
         <v>213</v>
@@ -2792,7 +2792,7 @@
         <v>60000000</v>
       </c>
       <c r="L23">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M23" t="s">
         <v>201</v>
@@ -2801,7 +2801,7 @@
         <v>60000000</v>
       </c>
       <c r="O23">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="U23" t="s">
         <v>213</v>
@@ -2833,7 +2833,7 @@
         <v>201</v>
       </c>
       <c r="K24">
-        <v>60000339</v>
+        <v>60000347</v>
       </c>
       <c r="M24" t="s">
         <v>201</v>
@@ -2880,7 +2880,7 @@
         <v>60000000</v>
       </c>
       <c r="L25">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s">
         <v>201</v>
@@ -2930,13 +2930,13 @@
         <v>201</v>
       </c>
       <c r="K26">
-        <v>60000339</v>
+        <v>60000347</v>
       </c>
       <c r="M26" t="s">
         <v>201</v>
       </c>
       <c r="N26">
-        <v>60000340</v>
+        <v>60000348</v>
       </c>
       <c r="U26" t="s">
         <v>213</v>
@@ -2977,13 +2977,13 @@
         <v>60000000</v>
       </c>
       <c r="L27">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s">
         <v>201</v>
       </c>
       <c r="N27">
-        <v>60000340</v>
+        <v>60000348</v>
       </c>
       <c r="U27" t="s">
         <v>213</v>
@@ -3024,7 +3024,7 @@
         <v>60000000</v>
       </c>
       <c r="L28">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s">
         <v>201</v>
@@ -3033,7 +3033,7 @@
         <v>60000000</v>
       </c>
       <c r="O28">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="U28" t="s">
         <v>213</v>
@@ -3071,7 +3071,7 @@
         <v>201</v>
       </c>
       <c r="K29">
-        <v>60000339</v>
+        <v>60000347</v>
       </c>
       <c r="M29" t="s">
         <v>201</v>

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2017,7 +2017,7 @@
         <v>201</v>
       </c>
       <c r="K6">
-        <v>60000347</v>
+        <v>60000373</v>
       </c>
       <c r="M6" t="s">
         <v>201</v>
@@ -2064,13 +2064,13 @@
         <v>60000000</v>
       </c>
       <c r="L7">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M7" t="s">
         <v>201</v>
       </c>
       <c r="N7">
-        <v>60000348</v>
+        <v>60000374</v>
       </c>
       <c r="U7" t="s">
         <v>213</v>
@@ -2105,7 +2105,7 @@
         <v>60000000</v>
       </c>
       <c r="L8">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M8" t="s">
         <v>201</v>
@@ -2114,7 +2114,7 @@
         <v>60000000</v>
       </c>
       <c r="O8">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="U8" t="s">
         <v>213</v>
@@ -2146,7 +2146,7 @@
         <v>201</v>
       </c>
       <c r="K9">
-        <v>60000347</v>
+        <v>60000373</v>
       </c>
       <c r="M9" t="s">
         <v>201</v>
@@ -2193,7 +2193,7 @@
         <v>60000000</v>
       </c>
       <c r="L10">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M10" t="s">
         <v>201</v>
@@ -2237,13 +2237,13 @@
         <v>201</v>
       </c>
       <c r="K11">
-        <v>60000347</v>
+        <v>60000373</v>
       </c>
       <c r="M11" t="s">
         <v>201</v>
       </c>
       <c r="N11">
-        <v>60000348</v>
+        <v>60000374</v>
       </c>
       <c r="U11" t="s">
         <v>213</v>
@@ -2284,13 +2284,13 @@
         <v>60000000</v>
       </c>
       <c r="L12">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M12" t="s">
         <v>201</v>
       </c>
       <c r="N12">
-        <v>60000348</v>
+        <v>60000374</v>
       </c>
       <c r="U12" t="s">
         <v>213</v>
@@ -2331,7 +2331,7 @@
         <v>60000000</v>
       </c>
       <c r="L13">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M13" t="s">
         <v>201</v>
@@ -2340,7 +2340,7 @@
         <v>60000000</v>
       </c>
       <c r="O13">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="U13" t="s">
         <v>213</v>
@@ -2378,7 +2378,7 @@
         <v>201</v>
       </c>
       <c r="K14">
-        <v>60000347</v>
+        <v>60000373</v>
       </c>
       <c r="M14" t="s">
         <v>201</v>
@@ -2431,7 +2431,7 @@
         <v>60000000</v>
       </c>
       <c r="L15">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M15" t="s">
         <v>201</v>
@@ -2481,13 +2481,13 @@
         <v>201</v>
       </c>
       <c r="K16">
-        <v>60000347</v>
+        <v>60000373</v>
       </c>
       <c r="M16" t="s">
         <v>201</v>
       </c>
       <c r="N16">
-        <v>60000348</v>
+        <v>60000374</v>
       </c>
       <c r="U16" t="s">
         <v>213</v>
@@ -2525,13 +2525,13 @@
         <v>60000000</v>
       </c>
       <c r="L17">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M17" t="s">
         <v>201</v>
       </c>
       <c r="N17">
-        <v>60000348</v>
+        <v>60000374</v>
       </c>
       <c r="U17" t="s">
         <v>213</v>
@@ -2569,7 +2569,7 @@
         <v>60000000</v>
       </c>
       <c r="L18">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M18" t="s">
         <v>201</v>
@@ -2578,7 +2578,7 @@
         <v>60000000</v>
       </c>
       <c r="O18">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="U18" t="s">
         <v>213</v>
@@ -2613,7 +2613,7 @@
         <v>201</v>
       </c>
       <c r="K19">
-        <v>60000347</v>
+        <v>60000373</v>
       </c>
       <c r="M19" t="s">
         <v>201</v>
@@ -2663,7 +2663,7 @@
         <v>60000000</v>
       </c>
       <c r="L20">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M20" t="s">
         <v>201</v>
@@ -2710,13 +2710,13 @@
         <v>201</v>
       </c>
       <c r="K21">
-        <v>60000347</v>
+        <v>60000373</v>
       </c>
       <c r="M21" t="s">
         <v>201</v>
       </c>
       <c r="N21">
-        <v>60000348</v>
+        <v>60000374</v>
       </c>
       <c r="U21" t="s">
         <v>213</v>
@@ -2751,13 +2751,13 @@
         <v>60000000</v>
       </c>
       <c r="L22">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M22" t="s">
         <v>201</v>
       </c>
       <c r="N22">
-        <v>60000348</v>
+        <v>60000374</v>
       </c>
       <c r="U22" t="s">
         <v>213</v>
@@ -2792,7 +2792,7 @@
         <v>60000000</v>
       </c>
       <c r="L23">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M23" t="s">
         <v>201</v>
@@ -2801,7 +2801,7 @@
         <v>60000000</v>
       </c>
       <c r="O23">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="U23" t="s">
         <v>213</v>
@@ -2833,7 +2833,7 @@
         <v>201</v>
       </c>
       <c r="K24">
-        <v>60000347</v>
+        <v>60000373</v>
       </c>
       <c r="M24" t="s">
         <v>201</v>
@@ -2880,7 +2880,7 @@
         <v>60000000</v>
       </c>
       <c r="L25">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M25" t="s">
         <v>201</v>
@@ -2930,13 +2930,13 @@
         <v>201</v>
       </c>
       <c r="K26">
-        <v>60000347</v>
+        <v>60000373</v>
       </c>
       <c r="M26" t="s">
         <v>201</v>
       </c>
       <c r="N26">
-        <v>60000348</v>
+        <v>60000374</v>
       </c>
       <c r="U26" t="s">
         <v>213</v>
@@ -2977,13 +2977,13 @@
         <v>60000000</v>
       </c>
       <c r="L27">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M27" t="s">
         <v>201</v>
       </c>
       <c r="N27">
-        <v>60000348</v>
+        <v>60000374</v>
       </c>
       <c r="U27" t="s">
         <v>213</v>
@@ -3024,7 +3024,7 @@
         <v>60000000</v>
       </c>
       <c r="L28">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M28" t="s">
         <v>201</v>
@@ -3033,7 +3033,7 @@
         <v>60000000</v>
       </c>
       <c r="O28">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="U28" t="s">
         <v>213</v>
@@ -3071,7 +3071,7 @@
         <v>201</v>
       </c>
       <c r="K29">
-        <v>60000347</v>
+        <v>60000373</v>
       </c>
       <c r="M29" t="s">
         <v>201</v>

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2017,7 +2017,7 @@
         <v>201</v>
       </c>
       <c r="K6">
-        <v>60000373</v>
+        <v>60000391</v>
       </c>
       <c r="M6" t="s">
         <v>201</v>
@@ -2064,13 +2064,13 @@
         <v>60000000</v>
       </c>
       <c r="L7">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M7" t="s">
         <v>201</v>
       </c>
       <c r="N7">
-        <v>60000374</v>
+        <v>60000392</v>
       </c>
       <c r="U7" t="s">
         <v>213</v>
@@ -2105,7 +2105,7 @@
         <v>60000000</v>
       </c>
       <c r="L8">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M8" t="s">
         <v>201</v>
@@ -2114,7 +2114,7 @@
         <v>60000000</v>
       </c>
       <c r="O8">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="U8" t="s">
         <v>213</v>
@@ -2146,7 +2146,7 @@
         <v>201</v>
       </c>
       <c r="K9">
-        <v>60000373</v>
+        <v>60000391</v>
       </c>
       <c r="M9" t="s">
         <v>201</v>
@@ -2193,7 +2193,7 @@
         <v>60000000</v>
       </c>
       <c r="L10">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M10" t="s">
         <v>201</v>
@@ -2237,13 +2237,13 @@
         <v>201</v>
       </c>
       <c r="K11">
-        <v>60000373</v>
+        <v>60000391</v>
       </c>
       <c r="M11" t="s">
         <v>201</v>
       </c>
       <c r="N11">
-        <v>60000374</v>
+        <v>60000392</v>
       </c>
       <c r="U11" t="s">
         <v>213</v>
@@ -2284,13 +2284,13 @@
         <v>60000000</v>
       </c>
       <c r="L12">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M12" t="s">
         <v>201</v>
       </c>
       <c r="N12">
-        <v>60000374</v>
+        <v>60000392</v>
       </c>
       <c r="U12" t="s">
         <v>213</v>
@@ -2331,7 +2331,7 @@
         <v>60000000</v>
       </c>
       <c r="L13">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M13" t="s">
         <v>201</v>
@@ -2340,7 +2340,7 @@
         <v>60000000</v>
       </c>
       <c r="O13">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="U13" t="s">
         <v>213</v>
@@ -2378,7 +2378,7 @@
         <v>201</v>
       </c>
       <c r="K14">
-        <v>60000373</v>
+        <v>60000391</v>
       </c>
       <c r="M14" t="s">
         <v>201</v>
@@ -2431,7 +2431,7 @@
         <v>60000000</v>
       </c>
       <c r="L15">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M15" t="s">
         <v>201</v>
@@ -2481,13 +2481,13 @@
         <v>201</v>
       </c>
       <c r="K16">
-        <v>60000373</v>
+        <v>60000391</v>
       </c>
       <c r="M16" t="s">
         <v>201</v>
       </c>
       <c r="N16">
-        <v>60000374</v>
+        <v>60000392</v>
       </c>
       <c r="U16" t="s">
         <v>213</v>
@@ -2525,13 +2525,13 @@
         <v>60000000</v>
       </c>
       <c r="L17">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M17" t="s">
         <v>201</v>
       </c>
       <c r="N17">
-        <v>60000374</v>
+        <v>60000392</v>
       </c>
       <c r="U17" t="s">
         <v>213</v>
@@ -2569,7 +2569,7 @@
         <v>60000000</v>
       </c>
       <c r="L18">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M18" t="s">
         <v>201</v>
@@ -2578,7 +2578,7 @@
         <v>60000000</v>
       </c>
       <c r="O18">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="U18" t="s">
         <v>213</v>
@@ -2613,7 +2613,7 @@
         <v>201</v>
       </c>
       <c r="K19">
-        <v>60000373</v>
+        <v>60000391</v>
       </c>
       <c r="M19" t="s">
         <v>201</v>
@@ -2663,7 +2663,7 @@
         <v>60000000</v>
       </c>
       <c r="L20">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M20" t="s">
         <v>201</v>
@@ -2710,13 +2710,13 @@
         <v>201</v>
       </c>
       <c r="K21">
-        <v>60000373</v>
+        <v>60000391</v>
       </c>
       <c r="M21" t="s">
         <v>201</v>
       </c>
       <c r="N21">
-        <v>60000374</v>
+        <v>60000392</v>
       </c>
       <c r="U21" t="s">
         <v>213</v>
@@ -2751,13 +2751,13 @@
         <v>60000000</v>
       </c>
       <c r="L22">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M22" t="s">
         <v>201</v>
       </c>
       <c r="N22">
-        <v>60000374</v>
+        <v>60000392</v>
       </c>
       <c r="U22" t="s">
         <v>213</v>
@@ -2792,7 +2792,7 @@
         <v>60000000</v>
       </c>
       <c r="L23">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M23" t="s">
         <v>201</v>
@@ -2801,7 +2801,7 @@
         <v>60000000</v>
       </c>
       <c r="O23">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="U23" t="s">
         <v>213</v>
@@ -2833,7 +2833,7 @@
         <v>201</v>
       </c>
       <c r="K24">
-        <v>60000373</v>
+        <v>60000391</v>
       </c>
       <c r="M24" t="s">
         <v>201</v>
@@ -2880,7 +2880,7 @@
         <v>60000000</v>
       </c>
       <c r="L25">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M25" t="s">
         <v>201</v>
@@ -2930,13 +2930,13 @@
         <v>201</v>
       </c>
       <c r="K26">
-        <v>60000373</v>
+        <v>60000391</v>
       </c>
       <c r="M26" t="s">
         <v>201</v>
       </c>
       <c r="N26">
-        <v>60000374</v>
+        <v>60000392</v>
       </c>
       <c r="U26" t="s">
         <v>213</v>
@@ -2977,13 +2977,13 @@
         <v>60000000</v>
       </c>
       <c r="L27">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M27" t="s">
         <v>201</v>
       </c>
       <c r="N27">
-        <v>60000374</v>
+        <v>60000392</v>
       </c>
       <c r="U27" t="s">
         <v>213</v>
@@ -3024,7 +3024,7 @@
         <v>60000000</v>
       </c>
       <c r="L28">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s">
         <v>201</v>
@@ -3033,7 +3033,7 @@
         <v>60000000</v>
       </c>
       <c r="O28">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="U28" t="s">
         <v>213</v>
@@ -3071,7 +3071,7 @@
         <v>201</v>
       </c>
       <c r="K29">
-        <v>60000373</v>
+        <v>60000391</v>
       </c>
       <c r="M29" t="s">
         <v>201</v>

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="224">
   <si>
     <t>Overview</t>
   </si>
@@ -315,13 +315,13 @@
     <t>Document Type</t>
   </si>
   <si>
-    <t>Document Date in Document</t>
-  </si>
-  <si>
-    <t>Posting Date in the Document</t>
-  </si>
-  <si>
-    <t>Asset Value Date</t>
+    <t>Document Date in Document (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Posting Date in the Document (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Asset Value Date (YYYY-MM-DD)</t>
   </si>
   <si>
     <t>Ledger in General Ledger Accounting</t>
@@ -504,16 +504,16 @@
     <t>Document Type (2)</t>
   </si>
   <si>
-    <t>*Document Date in Document (YYYY-MM-DD)</t>
+    <t>*Document Date in Document (YYYY-MM-DD) (8)</t>
   </si>
   <si>
     <t>2022-01-05</t>
   </si>
   <si>
-    <t>*Posting Date in the Document (YYYY-MM-DD)</t>
-  </si>
-  <si>
-    <t>*Asset Value Date (YYYY-MM-DD)</t>
+    <t>*Posting Date in the Document (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>*Asset Value Date (YYYY-MM-DD) (8)</t>
   </si>
   <si>
     <t>Ledger in General Ledger Accounting (2)</t>
@@ -639,6 +639,9 @@
     <t>Partner Asset Subnumber (4)</t>
   </si>
   <si>
+    <t>Revenue from asset sale (23)</t>
+  </si>
+  <si>
     <t>Base depreciation area for determining net book value (2)</t>
   </si>
   <si>
@@ -658,6 +661,9 @@
   </si>
   <si>
     <t>0004</t>
+  </si>
+  <si>
+    <t>Amount posted (23)</t>
   </si>
   <si>
     <t>Quantity (13)</t>
@@ -1361,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1384,43 +1390,60 @@
         <v>131</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>126</v>
@@ -1434,10 +1457,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
         <v>126</v>
@@ -1451,30 +1474,27 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
         <v>133</v>
@@ -1482,52 +1502,55 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
         <v>126</v>
@@ -1536,32 +1559,29 @@
         <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
         <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
         <v>129</v>
@@ -1572,228 +1592,214 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
         <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
         <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
         <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
         <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
         <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>126</v>
       </c>
       <c r="D22" t="s">
         <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
         <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
         <v>129</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
         <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
         <v>129</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1958,43 +1964,43 @@
         <v>206</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="Q5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V5" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="W5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="X5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Y5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Z5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AA5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AB5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -2017,13 +2023,13 @@
         <v>201</v>
       </c>
       <c r="K6">
-        <v>60000391</v>
+        <v>60000409</v>
       </c>
       <c r="M6" t="s">
         <v>201</v>
       </c>
       <c r="R6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S6">
         <v>17101101</v>
@@ -2032,13 +2038,13 @@
         <v>175</v>
       </c>
       <c r="U6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V6" t="s">
         <v>142</v>
       </c>
       <c r="Z6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -2064,22 +2070,22 @@
         <v>60000000</v>
       </c>
       <c r="L7">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M7" t="s">
         <v>201</v>
       </c>
       <c r="N7">
-        <v>60000392</v>
+        <v>60000410</v>
       </c>
       <c r="U7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V7" t="s">
         <v>142</v>
       </c>
       <c r="Z7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -2105,7 +2111,7 @@
         <v>60000000</v>
       </c>
       <c r="L8">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M8" t="s">
         <v>201</v>
@@ -2114,16 +2120,16 @@
         <v>60000000</v>
       </c>
       <c r="O8">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="U8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V8" t="s">
         <v>142</v>
       </c>
       <c r="Z8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -2146,13 +2152,13 @@
         <v>201</v>
       </c>
       <c r="K9">
-        <v>60000391</v>
+        <v>60000409</v>
       </c>
       <c r="M9" t="s">
         <v>201</v>
       </c>
       <c r="R9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S9">
         <v>17101101</v>
@@ -2161,13 +2167,13 @@
         <v>178</v>
       </c>
       <c r="U9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V9" t="s">
         <v>142</v>
       </c>
       <c r="Z9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -2193,13 +2199,13 @@
         <v>60000000</v>
       </c>
       <c r="L10">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M10" t="s">
         <v>201</v>
       </c>
       <c r="R10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S10">
         <v>17101101</v>
@@ -2208,13 +2214,13 @@
         <v>179</v>
       </c>
       <c r="U10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V10" t="s">
         <v>142</v>
       </c>
       <c r="Z10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -2237,16 +2243,16 @@
         <v>201</v>
       </c>
       <c r="K11">
-        <v>60000391</v>
+        <v>60000409</v>
       </c>
       <c r="M11" t="s">
         <v>201</v>
       </c>
       <c r="N11">
-        <v>60000392</v>
+        <v>60000410</v>
       </c>
       <c r="U11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V11" t="s">
         <v>142</v>
@@ -2255,10 +2261,10 @@
         <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Z11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -2284,16 +2290,16 @@
         <v>60000000</v>
       </c>
       <c r="L12">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M12" t="s">
         <v>201</v>
       </c>
       <c r="N12">
-        <v>60000392</v>
+        <v>60000410</v>
       </c>
       <c r="U12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V12" t="s">
         <v>142</v>
@@ -2302,10 +2308,10 @@
         <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Z12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -2331,7 +2337,7 @@
         <v>60000000</v>
       </c>
       <c r="L13">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M13" t="s">
         <v>201</v>
@@ -2340,10 +2346,10 @@
         <v>60000000</v>
       </c>
       <c r="O13">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="U13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V13" t="s">
         <v>142</v>
@@ -2352,10 +2358,10 @@
         <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Z13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -2378,13 +2384,13 @@
         <v>201</v>
       </c>
       <c r="K14">
-        <v>60000391</v>
+        <v>60000409</v>
       </c>
       <c r="M14" t="s">
         <v>201</v>
       </c>
       <c r="R14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S14">
         <v>17101101</v>
@@ -2393,7 +2399,7 @@
         <v>183</v>
       </c>
       <c r="U14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V14" t="s">
         <v>142</v>
@@ -2402,10 +2408,10 @@
         <v>142</v>
       </c>
       <c r="X14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Z14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2431,13 +2437,13 @@
         <v>60000000</v>
       </c>
       <c r="L15">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M15" t="s">
         <v>201</v>
       </c>
       <c r="R15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S15">
         <v>17101101</v>
@@ -2446,7 +2452,7 @@
         <v>184</v>
       </c>
       <c r="U15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V15" t="s">
         <v>142</v>
@@ -2455,10 +2461,10 @@
         <v>142</v>
       </c>
       <c r="X15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Z15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2481,25 +2487,25 @@
         <v>201</v>
       </c>
       <c r="K16">
-        <v>60000391</v>
+        <v>60000409</v>
       </c>
       <c r="M16" t="s">
         <v>201</v>
       </c>
       <c r="N16">
-        <v>60000392</v>
+        <v>60000410</v>
       </c>
       <c r="U16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="W16" t="s">
         <v>142</v>
       </c>
       <c r="X16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Z16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -2525,25 +2531,25 @@
         <v>60000000</v>
       </c>
       <c r="L17">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M17" t="s">
         <v>201</v>
       </c>
       <c r="N17">
-        <v>60000392</v>
+        <v>60000410</v>
       </c>
       <c r="U17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="W17" t="s">
         <v>142</v>
       </c>
       <c r="X17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Z17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -2569,7 +2575,7 @@
         <v>60000000</v>
       </c>
       <c r="L18">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M18" t="s">
         <v>201</v>
@@ -2578,19 +2584,19 @@
         <v>60000000</v>
       </c>
       <c r="O18">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="U18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="W18" t="s">
         <v>142</v>
       </c>
       <c r="X18" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Z18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -2613,13 +2619,13 @@
         <v>201</v>
       </c>
       <c r="K19">
-        <v>60000391</v>
+        <v>60000409</v>
       </c>
       <c r="M19" t="s">
         <v>201</v>
       </c>
       <c r="R19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S19">
         <v>17101101</v>
@@ -2628,16 +2634,16 @@
         <v>188</v>
       </c>
       <c r="U19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="W19" t="s">
         <v>142</v>
       </c>
       <c r="X19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Z19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2663,13 +2669,13 @@
         <v>60000000</v>
       </c>
       <c r="L20">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M20" t="s">
         <v>201</v>
       </c>
       <c r="R20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S20">
         <v>17101101</v>
@@ -2678,16 +2684,16 @@
         <v>189</v>
       </c>
       <c r="U20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="W20" t="s">
         <v>142</v>
       </c>
       <c r="X20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Z20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2710,22 +2716,22 @@
         <v>201</v>
       </c>
       <c r="K21">
-        <v>60000391</v>
+        <v>60000409</v>
       </c>
       <c r="M21" t="s">
         <v>201</v>
       </c>
       <c r="N21">
-        <v>60000392</v>
+        <v>60000410</v>
       </c>
       <c r="U21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y21" t="s">
         <v>142</v>
       </c>
       <c r="Z21" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2751,22 +2757,22 @@
         <v>60000000</v>
       </c>
       <c r="L22">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M22" t="s">
         <v>201</v>
       </c>
       <c r="N22">
-        <v>60000392</v>
+        <v>60000410</v>
       </c>
       <c r="U22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y22" t="s">
         <v>142</v>
       </c>
       <c r="Z22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2792,7 +2798,7 @@
         <v>60000000</v>
       </c>
       <c r="L23">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M23" t="s">
         <v>201</v>
@@ -2801,16 +2807,16 @@
         <v>60000000</v>
       </c>
       <c r="O23">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="U23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y23" t="s">
         <v>142</v>
       </c>
       <c r="Z23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2833,13 +2839,13 @@
         <v>201</v>
       </c>
       <c r="K24">
-        <v>60000391</v>
+        <v>60000409</v>
       </c>
       <c r="M24" t="s">
         <v>201</v>
       </c>
       <c r="R24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S24">
         <v>17101101</v>
@@ -2848,13 +2854,13 @@
         <v>193</v>
       </c>
       <c r="U24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y24" t="s">
         <v>142</v>
       </c>
       <c r="Z24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2880,13 +2886,13 @@
         <v>60000000</v>
       </c>
       <c r="L25">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M25" t="s">
         <v>201</v>
       </c>
       <c r="R25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S25">
         <v>17101101</v>
@@ -2895,13 +2901,13 @@
         <v>194</v>
       </c>
       <c r="U25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y25" t="s">
         <v>142</v>
       </c>
       <c r="Z25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2930,22 +2936,22 @@
         <v>201</v>
       </c>
       <c r="K26">
-        <v>60000391</v>
+        <v>60000409</v>
       </c>
       <c r="M26" t="s">
         <v>201</v>
       </c>
       <c r="N26">
-        <v>60000392</v>
+        <v>60000410</v>
       </c>
       <c r="U26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V26" t="s">
         <v>142</v>
       </c>
       <c r="Z26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2977,22 +2983,22 @@
         <v>60000000</v>
       </c>
       <c r="L27">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M27" t="s">
         <v>201</v>
       </c>
       <c r="N27">
-        <v>60000392</v>
+        <v>60000410</v>
       </c>
       <c r="U27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V27" t="s">
         <v>142</v>
       </c>
       <c r="Z27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -3024,7 +3030,7 @@
         <v>60000000</v>
       </c>
       <c r="L28">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M28" t="s">
         <v>201</v>
@@ -3033,16 +3039,16 @@
         <v>60000000</v>
       </c>
       <c r="O28">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="U28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V28" t="s">
         <v>142</v>
       </c>
       <c r="Z28" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -3071,13 +3077,13 @@
         <v>201</v>
       </c>
       <c r="K29">
-        <v>60000391</v>
+        <v>60000409</v>
       </c>
       <c r="M29" t="s">
         <v>201</v>
       </c>
       <c r="R29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S29">
         <v>17101101</v>
@@ -3086,13 +3092,13 @@
         <v>198</v>
       </c>
       <c r="U29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V29" t="s">
         <v>142</v>
       </c>
       <c r="Z29" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2023,7 +2023,7 @@
         <v>201</v>
       </c>
       <c r="K6">
-        <v>60000409</v>
+        <v>60000427</v>
       </c>
       <c r="M6" t="s">
         <v>201</v>
@@ -2070,13 +2070,13 @@
         <v>60000000</v>
       </c>
       <c r="L7">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M7" t="s">
         <v>201</v>
       </c>
       <c r="N7">
-        <v>60000410</v>
+        <v>60000428</v>
       </c>
       <c r="U7" t="s">
         <v>214</v>
@@ -2111,7 +2111,7 @@
         <v>60000000</v>
       </c>
       <c r="L8">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M8" t="s">
         <v>201</v>
@@ -2120,7 +2120,7 @@
         <v>60000000</v>
       </c>
       <c r="O8">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="U8" t="s">
         <v>214</v>
@@ -2152,7 +2152,7 @@
         <v>201</v>
       </c>
       <c r="K9">
-        <v>60000409</v>
+        <v>60000427</v>
       </c>
       <c r="M9" t="s">
         <v>201</v>
@@ -2199,7 +2199,7 @@
         <v>60000000</v>
       </c>
       <c r="L10">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M10" t="s">
         <v>201</v>
@@ -2243,13 +2243,13 @@
         <v>201</v>
       </c>
       <c r="K11">
-        <v>60000409</v>
+        <v>60000427</v>
       </c>
       <c r="M11" t="s">
         <v>201</v>
       </c>
       <c r="N11">
-        <v>60000410</v>
+        <v>60000428</v>
       </c>
       <c r="U11" t="s">
         <v>214</v>
@@ -2290,13 +2290,13 @@
         <v>60000000</v>
       </c>
       <c r="L12">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M12" t="s">
         <v>201</v>
       </c>
       <c r="N12">
-        <v>60000410</v>
+        <v>60000428</v>
       </c>
       <c r="U12" t="s">
         <v>214</v>
@@ -2337,7 +2337,7 @@
         <v>60000000</v>
       </c>
       <c r="L13">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M13" t="s">
         <v>201</v>
@@ -2346,7 +2346,7 @@
         <v>60000000</v>
       </c>
       <c r="O13">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="U13" t="s">
         <v>214</v>
@@ -2384,7 +2384,7 @@
         <v>201</v>
       </c>
       <c r="K14">
-        <v>60000409</v>
+        <v>60000427</v>
       </c>
       <c r="M14" t="s">
         <v>201</v>
@@ -2437,7 +2437,7 @@
         <v>60000000</v>
       </c>
       <c r="L15">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M15" t="s">
         <v>201</v>
@@ -2487,13 +2487,13 @@
         <v>201</v>
       </c>
       <c r="K16">
-        <v>60000409</v>
+        <v>60000427</v>
       </c>
       <c r="M16" t="s">
         <v>201</v>
       </c>
       <c r="N16">
-        <v>60000410</v>
+        <v>60000428</v>
       </c>
       <c r="U16" t="s">
         <v>214</v>
@@ -2531,13 +2531,13 @@
         <v>60000000</v>
       </c>
       <c r="L17">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M17" t="s">
         <v>201</v>
       </c>
       <c r="N17">
-        <v>60000410</v>
+        <v>60000428</v>
       </c>
       <c r="U17" t="s">
         <v>214</v>
@@ -2575,7 +2575,7 @@
         <v>60000000</v>
       </c>
       <c r="L18">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M18" t="s">
         <v>201</v>
@@ -2584,7 +2584,7 @@
         <v>60000000</v>
       </c>
       <c r="O18">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="U18" t="s">
         <v>214</v>
@@ -2619,7 +2619,7 @@
         <v>201</v>
       </c>
       <c r="K19">
-        <v>60000409</v>
+        <v>60000427</v>
       </c>
       <c r="M19" t="s">
         <v>201</v>
@@ -2669,7 +2669,7 @@
         <v>60000000</v>
       </c>
       <c r="L20">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M20" t="s">
         <v>201</v>
@@ -2716,13 +2716,13 @@
         <v>201</v>
       </c>
       <c r="K21">
-        <v>60000409</v>
+        <v>60000427</v>
       </c>
       <c r="M21" t="s">
         <v>201</v>
       </c>
       <c r="N21">
-        <v>60000410</v>
+        <v>60000428</v>
       </c>
       <c r="U21" t="s">
         <v>214</v>
@@ -2757,13 +2757,13 @@
         <v>60000000</v>
       </c>
       <c r="L22">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M22" t="s">
         <v>201</v>
       </c>
       <c r="N22">
-        <v>60000410</v>
+        <v>60000428</v>
       </c>
       <c r="U22" t="s">
         <v>214</v>
@@ -2798,7 +2798,7 @@
         <v>60000000</v>
       </c>
       <c r="L23">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M23" t="s">
         <v>201</v>
@@ -2807,7 +2807,7 @@
         <v>60000000</v>
       </c>
       <c r="O23">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="U23" t="s">
         <v>214</v>
@@ -2839,7 +2839,7 @@
         <v>201</v>
       </c>
       <c r="K24">
-        <v>60000409</v>
+        <v>60000427</v>
       </c>
       <c r="M24" t="s">
         <v>201</v>
@@ -2886,7 +2886,7 @@
         <v>60000000</v>
       </c>
       <c r="L25">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M25" t="s">
         <v>201</v>
@@ -2936,13 +2936,13 @@
         <v>201</v>
       </c>
       <c r="K26">
-        <v>60000409</v>
+        <v>60000427</v>
       </c>
       <c r="M26" t="s">
         <v>201</v>
       </c>
       <c r="N26">
-        <v>60000410</v>
+        <v>60000428</v>
       </c>
       <c r="U26" t="s">
         <v>214</v>
@@ -2983,13 +2983,13 @@
         <v>60000000</v>
       </c>
       <c r="L27">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M27" t="s">
         <v>201</v>
       </c>
       <c r="N27">
-        <v>60000410</v>
+        <v>60000428</v>
       </c>
       <c r="U27" t="s">
         <v>214</v>
@@ -3030,7 +3030,7 @@
         <v>60000000</v>
       </c>
       <c r="L28">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M28" t="s">
         <v>201</v>
@@ -3039,7 +3039,7 @@
         <v>60000000</v>
       </c>
       <c r="O28">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="U28" t="s">
         <v>214</v>
@@ -3077,7 +3077,7 @@
         <v>201</v>
       </c>
       <c r="K29">
-        <v>60000409</v>
+        <v>60000427</v>
       </c>
       <c r="M29" t="s">
         <v>201</v>

--- a/02_transfer_upload.xlsx
+++ b/02_transfer_upload.xlsx
@@ -2023,7 +2023,7 @@
         <v>201</v>
       </c>
       <c r="K6">
-        <v>60000427</v>
+        <v>60000477</v>
       </c>
       <c r="M6" t="s">
         <v>201</v>
@@ -2070,13 +2070,13 @@
         <v>60000000</v>
       </c>
       <c r="L7">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M7" t="s">
         <v>201</v>
       </c>
       <c r="N7">
-        <v>60000428</v>
+        <v>60000478</v>
       </c>
       <c r="U7" t="s">
         <v>214</v>
@@ -2111,7 +2111,7 @@
         <v>60000000</v>
       </c>
       <c r="L8">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M8" t="s">
         <v>201</v>
@@ -2120,7 +2120,7 @@
         <v>60000000</v>
       </c>
       <c r="O8">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="U8" t="s">
         <v>214</v>
@@ -2152,7 +2152,7 @@
         <v>201</v>
       </c>
       <c r="K9">
-        <v>60000427</v>
+        <v>60000477</v>
       </c>
       <c r="M9" t="s">
         <v>201</v>
@@ -2199,7 +2199,7 @@
         <v>60000000</v>
       </c>
       <c r="L10">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M10" t="s">
         <v>201</v>
@@ -2243,13 +2243,13 @@
         <v>201</v>
       </c>
       <c r="K11">
-        <v>60000427</v>
+        <v>60000477</v>
       </c>
       <c r="M11" t="s">
         <v>201</v>
       </c>
       <c r="N11">
-        <v>60000428</v>
+        <v>60000478</v>
       </c>
       <c r="U11" t="s">
         <v>214</v>
@@ -2290,13 +2290,13 @@
         <v>60000000</v>
       </c>
       <c r="L12">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M12" t="s">
         <v>201</v>
       </c>
       <c r="N12">
-        <v>60000428</v>
+        <v>60000478</v>
       </c>
       <c r="U12" t="s">
         <v>214</v>
@@ -2337,7 +2337,7 @@
         <v>60000000</v>
       </c>
       <c r="L13">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M13" t="s">
         <v>201</v>
@@ -2346,7 +2346,7 @@
         <v>60000000</v>
       </c>
       <c r="O13">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="U13" t="s">
         <v>214</v>
@@ -2384,7 +2384,7 @@
         <v>201</v>
       </c>
       <c r="K14">
-        <v>60000427</v>
+        <v>60000477</v>
       </c>
       <c r="M14" t="s">
         <v>201</v>
@@ -2437,7 +2437,7 @@
         <v>60000000</v>
       </c>
       <c r="L15">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M15" t="s">
         <v>201</v>
@@ -2487,13 +2487,13 @@
         <v>201</v>
       </c>
       <c r="K16">
-        <v>60000427</v>
+        <v>60000477</v>
       </c>
       <c r="M16" t="s">
         <v>201</v>
       </c>
       <c r="N16">
-        <v>60000428</v>
+        <v>60000478</v>
       </c>
       <c r="U16" t="s">
         <v>214</v>
@@ -2531,13 +2531,13 @@
         <v>60000000</v>
       </c>
       <c r="L17">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M17" t="s">
         <v>201</v>
       </c>
       <c r="N17">
-        <v>60000428</v>
+        <v>60000478</v>
       </c>
       <c r="U17" t="s">
         <v>214</v>
@@ -2575,7 +2575,7 @@
         <v>60000000</v>
       </c>
       <c r="L18">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M18" t="s">
         <v>201</v>
@@ -2584,7 +2584,7 @@
         <v>60000000</v>
       </c>
       <c r="O18">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="U18" t="s">
         <v>214</v>
@@ -2619,7 +2619,7 @@
         <v>201</v>
       </c>
       <c r="K19">
-        <v>60000427</v>
+        <v>60000477</v>
       </c>
       <c r="M19" t="s">
         <v>201</v>
@@ -2669,7 +2669,7 @@
         <v>60000000</v>
       </c>
       <c r="L20">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M20" t="s">
         <v>201</v>
@@ -2716,13 +2716,13 @@
         <v>201</v>
       </c>
       <c r="K21">
-        <v>60000427</v>
+        <v>60000477</v>
       </c>
       <c r="M21" t="s">
         <v>201</v>
       </c>
       <c r="N21">
-        <v>60000428</v>
+        <v>60000478</v>
       </c>
       <c r="U21" t="s">
         <v>214</v>
@@ -2757,13 +2757,13 @@
         <v>60000000</v>
       </c>
       <c r="L22">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M22" t="s">
         <v>201</v>
       </c>
       <c r="N22">
-        <v>60000428</v>
+        <v>60000478</v>
       </c>
       <c r="U22" t="s">
         <v>214</v>
@@ -2798,7 +2798,7 @@
         <v>60000000</v>
       </c>
       <c r="L23">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M23" t="s">
         <v>201</v>
@@ -2807,7 +2807,7 @@
         <v>60000000</v>
       </c>
       <c r="O23">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="U23" t="s">
         <v>214</v>
@@ -2839,7 +2839,7 @@
         <v>201</v>
       </c>
       <c r="K24">
-        <v>60000427</v>
+        <v>60000477</v>
       </c>
       <c r="M24" t="s">
         <v>201</v>
@@ -2886,7 +2886,7 @@
         <v>60000000</v>
       </c>
       <c r="L25">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M25" t="s">
         <v>201</v>
@@ -2936,13 +2936,13 @@
         <v>201</v>
       </c>
       <c r="K26">
-        <v>60000427</v>
+        <v>60000477</v>
       </c>
       <c r="M26" t="s">
         <v>201</v>
       </c>
       <c r="N26">
-        <v>60000428</v>
+        <v>60000478</v>
       </c>
       <c r="U26" t="s">
         <v>214</v>
@@ -2983,13 +2983,13 @@
         <v>60000000</v>
       </c>
       <c r="L27">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M27" t="s">
         <v>201</v>
       </c>
       <c r="N27">
-        <v>60000428</v>
+        <v>60000478</v>
       </c>
       <c r="U27" t="s">
         <v>214</v>
@@ -3030,7 +3030,7 @@
         <v>60000000</v>
       </c>
       <c r="L28">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M28" t="s">
         <v>201</v>
@@ -3039,7 +3039,7 @@
         <v>60000000</v>
       </c>
       <c r="O28">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="U28" t="s">
         <v>214</v>
@@ -3077,7 +3077,7 @@
         <v>201</v>
       </c>
       <c r="K29">
-        <v>60000427</v>
+        <v>60000477</v>
       </c>
       <c r="M29" t="s">
         <v>201</v>
